--- a/modules/custom/nfafmis_migrate/files/NFA_Blocks.xlsx
+++ b/modules/custom/nfafmis_migrate/files/NFA_Blocks.xlsx
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">BS/KIJ/006</t>
   </si>
   <si>
-    <t xml:space="preserve">Kitonya</t>
+    <t xml:space="preserve">Kitonya (Budongo System)</t>
   </si>
   <si>
     <t xml:space="preserve">BS/KIT/001</t>
@@ -1747,7 +1747,7 @@
     <t xml:space="preserve">BS/KYA/003</t>
   </si>
   <si>
-    <t xml:space="preserve">Mpanga</t>
+    <t xml:space="preserve">Mpanga (Budongo System)</t>
   </si>
   <si>
     <t xml:space="preserve">BS/MPA/001</t>
@@ -4099,7 +4099,7 @@
     <t xml:space="preserve">MR/KAB/031</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyampisi</t>
+    <t xml:space="preserve">Kyampisi (Muzizi River)</t>
   </si>
   <si>
     <t xml:space="preserve">MR/KYA/001</t>
@@ -5745,7 +5745,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5775,6 +5775,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5843,7 +5849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5878,11 +5884,11 @@
   </sheetPr>
   <dimension ref="A1:D1855"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A520" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B534" activeCellId="0" sqref="B534"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1327" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1357" activeCellId="0" sqref="B1357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
@@ -8201,13 +8207,13 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="4" t="s">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D166" s="2" t="n">
@@ -13310,11 +13316,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C531" s="2" t="s">
@@ -13324,11 +13330,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C532" s="2" t="s">
@@ -13338,11 +13344,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C533" s="2" t="s">
@@ -13352,11 +13358,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C534" s="2" t="s">
@@ -13366,11 +13372,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C535" s="2" t="s">
@@ -13380,11 +13386,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C536" s="2" t="s">
@@ -13436,11 +13442,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -13450,11 +13456,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C541" s="2" t="s">
@@ -13464,11 +13470,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C542" s="2" t="s">
@@ -13478,11 +13484,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C543" s="2" t="s">
@@ -13492,11 +13498,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C544" s="2" t="s">
@@ -13506,11 +13512,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C545" s="2" t="s">
@@ -13520,11 +13526,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C546" s="2" t="s">
@@ -13534,11 +13540,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C547" s="2" t="s">
@@ -13548,11 +13554,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C548" s="2" t="s">
@@ -13562,11 +13568,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C549" s="2" t="s">
@@ -24468,11 +24474,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1328" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1328" s="2" t="s">
+      <c r="B1328" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1328" s="2" t="s">
@@ -24482,11 +24488,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1329" s="2" t="s">
+      <c r="B1329" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1329" s="2" t="s">
@@ -24496,11 +24502,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1330" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1330" s="2" t="s">
+      <c r="B1330" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1330" s="2" t="s">
@@ -24510,11 +24516,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1331" s="2" t="s">
+      <c r="B1331" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1331" s="2" t="s">
@@ -24524,11 +24530,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1332" s="2" t="s">
+      <c r="B1332" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1332" s="2" t="s">
@@ -24538,11 +24544,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1333" s="2" t="s">
+      <c r="B1333" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1333" s="2" t="s">
@@ -24552,11 +24558,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1334" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1334" s="2" t="s">
+      <c r="B1334" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1334" s="2" t="s">
@@ -24566,11 +24572,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1335" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1335" s="2" t="s">
+      <c r="B1335" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1335" s="2" t="s">
@@ -24580,11 +24586,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1336" s="2" t="s">
+      <c r="B1336" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1336" s="2" t="s">
@@ -24594,11 +24600,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1337" s="2" t="s">
+      <c r="B1337" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1337" s="2" t="s">
@@ -24608,11 +24614,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1338" s="2" t="s">
+      <c r="B1338" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1338" s="2" t="s">
@@ -24622,11 +24628,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1339" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1339" s="2" t="s">
+      <c r="B1339" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1339" s="2" t="s">
@@ -24636,11 +24642,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1340" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1340" s="2" t="s">
+      <c r="B1340" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1340" s="2" t="s">
@@ -24650,11 +24656,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1341" s="2" t="s">
+      <c r="B1341" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1341" s="2" t="s">
@@ -24664,11 +24670,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1342" s="2" t="s">
+      <c r="B1342" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1342" s="2" t="s">
@@ -24678,11 +24684,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1343" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1343" s="2" t="s">
+      <c r="B1343" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1343" s="2" t="s">
@@ -24692,11 +24698,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1344" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1344" s="2" t="s">
+      <c r="B1344" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1344" s="2" t="s">
@@ -24706,11 +24712,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1345" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1345" s="2" t="s">
+      <c r="B1345" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1345" s="2" t="s">
@@ -24720,11 +24726,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1346" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1346" s="2" t="s">
+      <c r="B1346" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1346" s="2" t="s">
@@ -24734,11 +24740,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1347" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1347" s="2" t="s">
+      <c r="B1347" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1347" s="2" t="s">
@@ -24748,11 +24754,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1348" s="2" t="s">
+      <c r="B1348" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1348" s="2" t="s">
@@ -24762,11 +24768,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1349" s="2" t="s">
+      <c r="B1349" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1349" s="2" t="s">
@@ -24776,11 +24782,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1350" s="2" t="s">
+      <c r="B1350" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1350" s="2" t="s">
@@ -24790,11 +24796,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1351" s="2" t="s">
+      <c r="B1351" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1351" s="2" t="s">
@@ -24804,11 +24810,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1352" s="2" t="s">
+      <c r="B1352" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1352" s="2" t="s">
@@ -24818,11 +24824,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1353" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1353" s="2" t="s">
+      <c r="B1353" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1353" s="2" t="s">
@@ -24832,11 +24838,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1354" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1354" s="2" t="s">
+      <c r="B1354" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1354" s="2" t="s">
@@ -24846,11 +24852,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1355" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1355" s="2" t="s">
+      <c r="B1355" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1355" s="2" t="s">
@@ -24860,11 +24866,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1356" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1356" s="2" t="s">
+      <c r="B1356" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1356" s="2" t="s">
@@ -24874,11 +24880,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1357" s="2" t="s">
+      <c r="B1357" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1357" s="2" t="s">
@@ -24888,11 +24894,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1358" s="2" t="s">
+      <c r="B1358" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1358" s="2" t="s">
@@ -24902,11 +24908,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1359" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1359" s="2" t="s">
+      <c r="B1359" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1359" s="2" t="s">
@@ -24916,11 +24922,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1360" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1360" s="2" t="s">
+      <c r="B1360" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1360" s="2" t="s">
@@ -24930,11 +24936,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1361" s="2" t="s">
+      <c r="B1361" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1361" s="2" t="s">
@@ -24944,11 +24950,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1362" s="2" t="s">
+      <c r="B1362" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1362" s="2" t="s">
@@ -24958,11 +24964,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1363" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B1363" s="2" t="s">
+      <c r="B1363" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="C1363" s="2" t="s">
